--- a/Configs/NPCNeedDialogue.xlsx
+++ b/Configs/NPCNeedDialogue.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA7CAC1-4A20-42C9-ADF8-DAC400FD1051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3086B6-61BA-4412-8F0F-A2527A495226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14085" yWindow="3098" windowWidth="13845" windowHeight="11872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1283" yWindow="7920" windowWidth="19192" windowHeight="10793" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -64,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,22 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完全满足文本ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅满足需求1文本ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仅满足需求2文本ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无满足文本ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需求效果ID1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,18 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>allMatchMailID</t>
-  </si>
-  <si>
-    <t>match1MailID</t>
-  </si>
-  <si>
-    <t>match2MailID</t>
-  </si>
-  <si>
-    <t>noMatchMailID</t>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我需要效果22102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我需要效果21101和22101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,6 +114,30 @@
   </si>
   <si>
     <t>needID2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求效果ID3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needID3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我需要效果22102，23103和24103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求属性数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needAttributes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,6 +213,479 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ID</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>效果名</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>需求属性</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>需求值</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>是否正面</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>id</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>name</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>attributes</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>isPositive</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>int</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>string</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>int</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>int</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>bool</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>21001</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>属性一负面1</v>
+          </cell>
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+          <cell r="D4">
+            <v>20</v>
+          </cell>
+          <cell r="E4" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>21101</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>属性一正面1</v>
+          </cell>
+          <cell r="C5">
+            <v>1</v>
+          </cell>
+          <cell r="D5">
+            <v>20</v>
+          </cell>
+          <cell r="E5" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>21002</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>属性一负面2</v>
+          </cell>
+          <cell r="C6">
+            <v>1</v>
+          </cell>
+          <cell r="D6">
+            <v>50</v>
+          </cell>
+          <cell r="E6" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>21102</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>属性一正面2</v>
+          </cell>
+          <cell r="C7">
+            <v>1</v>
+          </cell>
+          <cell r="D7">
+            <v>50</v>
+          </cell>
+          <cell r="E7" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>21003</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>属性一负面3</v>
+          </cell>
+          <cell r="C8">
+            <v>1</v>
+          </cell>
+          <cell r="D8">
+            <v>70</v>
+          </cell>
+          <cell r="E8" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>21103</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>属性一正面3</v>
+          </cell>
+          <cell r="C9">
+            <v>1</v>
+          </cell>
+          <cell r="D9">
+            <v>70</v>
+          </cell>
+          <cell r="E9" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>22001</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>属性二负面1</v>
+          </cell>
+          <cell r="C10">
+            <v>2</v>
+          </cell>
+          <cell r="D10">
+            <v>30</v>
+          </cell>
+          <cell r="E10" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>22101</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>属性二正面1</v>
+          </cell>
+          <cell r="C11">
+            <v>2</v>
+          </cell>
+          <cell r="D11">
+            <v>30</v>
+          </cell>
+          <cell r="E11" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>22002</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>属性二负面2</v>
+          </cell>
+          <cell r="C12">
+            <v>2</v>
+          </cell>
+          <cell r="D12">
+            <v>60</v>
+          </cell>
+          <cell r="E12" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>22102</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>属性二正面2</v>
+          </cell>
+          <cell r="C13">
+            <v>2</v>
+          </cell>
+          <cell r="D13">
+            <v>60</v>
+          </cell>
+          <cell r="E13" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>22003</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>属性二负面3</v>
+          </cell>
+          <cell r="C14">
+            <v>2</v>
+          </cell>
+          <cell r="D14">
+            <v>90</v>
+          </cell>
+          <cell r="E14" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>22103</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>属性二正面3</v>
+          </cell>
+          <cell r="C15">
+            <v>2</v>
+          </cell>
+          <cell r="D15">
+            <v>90</v>
+          </cell>
+          <cell r="E15" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>23001</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>属性三负面1</v>
+          </cell>
+          <cell r="C16">
+            <v>3</v>
+          </cell>
+          <cell r="D16">
+            <v>10</v>
+          </cell>
+          <cell r="E16" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>23101</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>属性三正面1</v>
+          </cell>
+          <cell r="C17">
+            <v>3</v>
+          </cell>
+          <cell r="D17">
+            <v>10</v>
+          </cell>
+          <cell r="E17" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>23002</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>属性三负面2</v>
+          </cell>
+          <cell r="C18">
+            <v>3</v>
+          </cell>
+          <cell r="D18">
+            <v>35</v>
+          </cell>
+          <cell r="E18" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>23102</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>属性三正面2</v>
+          </cell>
+          <cell r="C19">
+            <v>3</v>
+          </cell>
+          <cell r="D19">
+            <v>35</v>
+          </cell>
+          <cell r="E19" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>23003</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>属性三负面3</v>
+          </cell>
+          <cell r="C20">
+            <v>3</v>
+          </cell>
+          <cell r="D20">
+            <v>75</v>
+          </cell>
+          <cell r="E20" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>23103</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>属性三正面3</v>
+          </cell>
+          <cell r="C21">
+            <v>3</v>
+          </cell>
+          <cell r="D21">
+            <v>75</v>
+          </cell>
+          <cell r="E21" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>24001</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>属性四负面1</v>
+          </cell>
+          <cell r="C22">
+            <v>4</v>
+          </cell>
+          <cell r="D22">
+            <v>45</v>
+          </cell>
+          <cell r="E22" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>24101</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>属性四正面1</v>
+          </cell>
+          <cell r="C23">
+            <v>4</v>
+          </cell>
+          <cell r="D23">
+            <v>45</v>
+          </cell>
+          <cell r="E23" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>24002</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>属性四负面2</v>
+          </cell>
+          <cell r="C24">
+            <v>4</v>
+          </cell>
+          <cell r="D24">
+            <v>65</v>
+          </cell>
+          <cell r="E24" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>24102</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>属性四正面2</v>
+          </cell>
+          <cell r="C25">
+            <v>4</v>
+          </cell>
+          <cell r="D25">
+            <v>65</v>
+          </cell>
+          <cell r="E25" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>24003</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>属性四负面3</v>
+          </cell>
+          <cell r="C26">
+            <v>4</v>
+          </cell>
+          <cell r="D26">
+            <v>85</v>
+          </cell>
+          <cell r="E26" t="b">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>24103</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>属性四正面3</v>
+          </cell>
+          <cell r="C27">
+            <v>4</v>
+          </cell>
+          <cell r="D27">
+            <v>85</v>
+          </cell>
+          <cell r="E27" t="b">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,23 +951,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.06640625" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.86328125" customWidth="1"/>
+    <col min="3" max="3" width="18.796875" customWidth="1"/>
+    <col min="4" max="4" width="16.1328125" customWidth="1"/>
+    <col min="5" max="5" width="18.53125" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -507,25 +975,19 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -533,56 +995,44 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>31001</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>21101</v>
@@ -591,68 +1041,53 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>51001</v>
-      </c>
-      <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="F4" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(C4=0,"",(VLOOKUP(C4,[1]Sheet1!$A:$E,3,FALSE))),IF(D4=0,"",(VLOOKUP(D4,[1]Sheet1!$A:$E,3,FALSE))),IF(E4=0,"",(VLOOKUP(E4,[1]Sheet1!$A:$E,3,FALSE))))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>32001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>21101</v>
+      </c>
+      <c r="D5">
+        <v>22101</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>51002</v>
+      <c r="F5" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(C5=0,"",(VLOOKUP(C5,[1]Sheet1!$A:$E,3,FALSE))),IF(D5=0,"",(VLOOKUP(D5,[1]Sheet1!$A:$E,3,FALSE))),IF(E5=0,"",(VLOOKUP(E5,[1]Sheet1!$A:$E,3,FALSE))))</f>
+        <v>1,2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>31002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>33001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
         <v>22102</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>51003</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>51004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>32001</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>21101</v>
-      </c>
       <c r="D6">
-        <v>22101</v>
+        <v>23103</v>
       </c>
       <c r="E6">
-        <v>51005</v>
-      </c>
-      <c r="F6">
-        <v>51006</v>
-      </c>
-      <c r="G6">
-        <v>51007</v>
-      </c>
-      <c r="H6">
-        <v>51008</v>
+        <v>24103</v>
+      </c>
+      <c r="F6" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(C6=0,"",(VLOOKUP(C6,[1]Sheet1!$A:$E,3,FALSE))),IF(D6=0,"",(VLOOKUP(D6,[1]Sheet1!$A:$E,3,FALSE))),IF(E6=0,"",(VLOOKUP(E6,[1]Sheet1!$A:$E,3,FALSE))))</f>
+        <v>2,3,4</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/NPCNeedDialogue.xlsx
+++ b/Configs/NPCNeedDialogue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3086B6-61BA-4412-8F0F-A2527A495226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ADC921-3D93-4DF2-A515-93D49D7AB496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1283" yWindow="7920" windowWidth="19192" windowHeight="10793" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4028" yWindow="4035" windowWidth="21600" windowHeight="11873" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -954,7 +954,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/Configs/NPCNeedDialogue.xlsx
+++ b/Configs/NPCNeedDialogue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ADC921-3D93-4DF2-A515-93D49D7AB496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEC93ED-E8C0-47DF-8AB5-A271A32AA8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4028" yWindow="4035" windowWidth="21600" windowHeight="11873" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8640" yWindow="3292" windowWidth="12660" windowHeight="12908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,14 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我需要效果21101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我需要效果21101和22101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>needID1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,6 +130,14 @@
   </si>
   <si>
     <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我需要效果&lt;color=BD69FF&gt;21101&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我需要效果&lt;color=2E89FF&gt;21101&lt;/c&gt;和&lt;color=FF57A1&gt;22101&lt;/c&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -285,7 +285,7 @@
             <v>1</v>
           </cell>
           <cell r="D4">
-            <v>20</v>
+            <v>-40</v>
           </cell>
           <cell r="E4" t="b">
             <v>0</v>
@@ -302,7 +302,7 @@
             <v>1</v>
           </cell>
           <cell r="D5">
-            <v>20</v>
+            <v>-40</v>
           </cell>
           <cell r="E5" t="b">
             <v>1</v>
@@ -319,7 +319,7 @@
             <v>1</v>
           </cell>
           <cell r="D6">
-            <v>50</v>
+            <v>24</v>
           </cell>
           <cell r="E6" t="b">
             <v>0</v>
@@ -336,7 +336,7 @@
             <v>1</v>
           </cell>
           <cell r="D7">
-            <v>50</v>
+            <v>24</v>
           </cell>
           <cell r="E7" t="b">
             <v>1</v>
@@ -353,7 +353,7 @@
             <v>1</v>
           </cell>
           <cell r="D8">
-            <v>70</v>
+            <v>58</v>
           </cell>
           <cell r="E8" t="b">
             <v>0</v>
@@ -370,7 +370,7 @@
             <v>1</v>
           </cell>
           <cell r="D9">
-            <v>70</v>
+            <v>58</v>
           </cell>
           <cell r="E9" t="b">
             <v>1</v>
@@ -387,7 +387,7 @@
             <v>2</v>
           </cell>
           <cell r="D10">
-            <v>30</v>
+            <v>-32</v>
           </cell>
           <cell r="E10" t="b">
             <v>0</v>
@@ -404,7 +404,7 @@
             <v>2</v>
           </cell>
           <cell r="D11">
-            <v>30</v>
+            <v>-32</v>
           </cell>
           <cell r="E11" t="b">
             <v>1</v>
@@ -421,7 +421,7 @@
             <v>2</v>
           </cell>
           <cell r="D12">
-            <v>60</v>
+            <v>41</v>
           </cell>
           <cell r="E12" t="b">
             <v>0</v>
@@ -438,7 +438,7 @@
             <v>2</v>
           </cell>
           <cell r="D13">
-            <v>60</v>
+            <v>41</v>
           </cell>
           <cell r="E13" t="b">
             <v>1</v>
@@ -455,7 +455,7 @@
             <v>2</v>
           </cell>
           <cell r="D14">
-            <v>90</v>
+            <v>72</v>
           </cell>
           <cell r="E14" t="b">
             <v>0</v>
@@ -472,7 +472,7 @@
             <v>2</v>
           </cell>
           <cell r="D15">
-            <v>90</v>
+            <v>72</v>
           </cell>
           <cell r="E15" t="b">
             <v>1</v>
@@ -489,7 +489,7 @@
             <v>3</v>
           </cell>
           <cell r="D16">
-            <v>10</v>
+            <v>-28</v>
           </cell>
           <cell r="E16" t="b">
             <v>0</v>
@@ -506,7 +506,7 @@
             <v>3</v>
           </cell>
           <cell r="D17">
-            <v>10</v>
+            <v>-28</v>
           </cell>
           <cell r="E17" t="b">
             <v>1</v>
@@ -523,7 +523,7 @@
             <v>3</v>
           </cell>
           <cell r="D18">
-            <v>35</v>
+            <v>33</v>
           </cell>
           <cell r="E18" t="b">
             <v>0</v>
@@ -540,7 +540,7 @@
             <v>3</v>
           </cell>
           <cell r="D19">
-            <v>35</v>
+            <v>33</v>
           </cell>
           <cell r="E19" t="b">
             <v>1</v>
@@ -557,7 +557,7 @@
             <v>3</v>
           </cell>
           <cell r="D20">
-            <v>75</v>
+            <v>88</v>
           </cell>
           <cell r="E20" t="b">
             <v>0</v>
@@ -574,7 +574,7 @@
             <v>3</v>
           </cell>
           <cell r="D21">
-            <v>75</v>
+            <v>88</v>
           </cell>
           <cell r="E21" t="b">
             <v>1</v>
@@ -591,7 +591,7 @@
             <v>4</v>
           </cell>
           <cell r="D22">
-            <v>45</v>
+            <v>-24</v>
           </cell>
           <cell r="E22" t="b">
             <v>0</v>
@@ -608,7 +608,7 @@
             <v>4</v>
           </cell>
           <cell r="D23">
-            <v>45</v>
+            <v>-24</v>
           </cell>
           <cell r="E23" t="b">
             <v>1</v>
@@ -625,7 +625,7 @@
             <v>4</v>
           </cell>
           <cell r="D24">
-            <v>65</v>
+            <v>20</v>
           </cell>
           <cell r="E24" t="b">
             <v>0</v>
@@ -642,7 +642,7 @@
             <v>4</v>
           </cell>
           <cell r="D25">
-            <v>65</v>
+            <v>20</v>
           </cell>
           <cell r="E25" t="b">
             <v>1</v>
@@ -659,7 +659,7 @@
             <v>4</v>
           </cell>
           <cell r="D26">
-            <v>85</v>
+            <v>49</v>
           </cell>
           <cell r="E26" t="b">
             <v>0</v>
@@ -676,7 +676,7 @@
             <v>4</v>
           </cell>
           <cell r="D27">
-            <v>85</v>
+            <v>49</v>
           </cell>
           <cell r="E27" t="b">
             <v>1</v>
@@ -954,13 +954,13 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.06640625" customWidth="1"/>
-    <col min="2" max="2" width="31.86328125" customWidth="1"/>
+    <col min="2" max="2" width="45.06640625" customWidth="1"/>
     <col min="3" max="3" width="18.796875" customWidth="1"/>
     <col min="4" max="4" width="16.1328125" customWidth="1"/>
     <col min="5" max="5" width="18.53125" customWidth="1"/>
@@ -981,10 +981,10 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -995,16 +995,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
@@ -1024,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -1032,7 +1032,7 @@
         <v>31001</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>21101</v>
@@ -1053,7 +1053,7 @@
         <v>32001</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>21101</v>
@@ -1074,7 +1074,7 @@
         <v>33001</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>22102</v>

--- a/Configs/NPCNeedDialogue.xlsx
+++ b/Configs/NPCNeedDialogue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BD1E72-1936-432B-91C7-03F07E9A63EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508D12DE-75EF-4730-BB70-37BF4C09464F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="3697" windowWidth="21172" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10425" yWindow="2550" windowWidth="16583" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -174,148 +174,148 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大夫，我最近总是感觉&lt;color=FF8730&gt;昏昏沉沉&lt;/color&gt;的，你能帮我看看不？</t>
-  </si>
-  <si>
-    <t>医生，我家那老头子最近中了300万，动不动就&lt;color=BD69FF&gt;“哏”抽过去&lt;/color&gt;，您给开开药。</t>
-  </si>
-  <si>
-    <t>大夫，我这一到阴天就&lt;color=FF57A0&gt;手脚发凉&lt;/color&gt;，你给我开点暖身子的药吧。</t>
-  </si>
-  <si>
-    <t>我拉……拉肚子……&lt;color=2E89FF&gt;拉的停不下来&lt;/color&gt;……快……</t>
-  </si>
-  <si>
-    <t>大夫！我最近！&lt;color=FF8730&gt;非常暴躁&lt;/color&gt;！你说！能不能！给我！开点！药！</t>
-  </si>
-  <si>
-    <t>医生，我儿子最近失恋了，&lt;color=BD69FF&gt;茶不思饭不想&lt;/color&gt;的，再不吃东西就得饿死了！</t>
-  </si>
-  <si>
-    <t>大夫，我最近有些上火，您来给我开点&lt;color=FF57A0&gt;下火&lt;/color&gt;的药吧。</t>
-  </si>
-  <si>
-    <t>这天儿也太热了。您瞧我这衣裳儿，嘿！都能挤出水来了！给我来点&lt;color=2E89FF&gt;止汗&lt;/color&gt;的药吧！</t>
-  </si>
-  <si>
-    <t>大夫，我明天要参加村里的&lt;color=FF8730&gt;跑步大赛&lt;/color&gt;，您给我开点~你懂的~</t>
-  </si>
-  <si>
-    <t>大夫……我已经……&lt;color=BD69FF&gt;三天没睡觉&lt;/color&gt;了……实在受不了了……</t>
-  </si>
-  <si>
-    <t>大夫，我一会儿就要参加考试了，但我现在还&lt;color=FF57A0&gt;困得不行&lt;/color&gt;，您能不能让我亢奋亢奋……</t>
-  </si>
-  <si>
-    <t>大夫，我肠胃一直不好，给我整点&lt;color=2E89FF&gt;养胃&lt;/color&gt;的呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=FF8730&gt;提神醒脑&lt;/color&gt;，也能&lt;color=BD69FF&gt;提振食欲&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=BD69FF&gt;平息静气&lt;/color&gt;，也能&lt;color=FF57A0&gt;清热泻火&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=FF57A0&gt;四体不寒&lt;/color&gt;，也能&lt;color=2E89FF&gt;固表止汗&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=2E89FF&gt;解暑止泻&lt;/color&gt;，也能&lt;color=FF8730&gt;安神去躁&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=FF8730&gt;安神去躁&lt;/color&gt;，也能&lt;color=BD69FF&gt;养神安眠&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=BD69FF&gt;提振食欲&lt;/color&gt;，也能&lt;color=FF57A0&gt;精神大振&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=FF57A0&gt;清热泻火&lt;/color&gt;，也能&lt;color=2E89FF&gt;健脾养胃&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=2E89FF&gt;固表止汗&lt;/color&gt;，也能&lt;color=FF8730&gt;充沛活力&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=FF8730&gt;充沛活力&lt;/color&gt;，也能&lt;color=BD69FF&gt;平息静气&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=BD69FF&gt;养神安眠&lt;/color&gt;，也能&lt;color=FF57A0&gt;四体不寒&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=FF57A0&gt;精神大振&lt;/color&gt;，也能&lt;color=2E89FF&gt;解暑止泻&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=2E89FF&gt;健脾养胃&lt;/color&gt;，也能&lt;color=FF8730&gt;提神醒脑&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=FF8730&gt;提神醒脑&lt;/color&gt;，也能&lt;color=FF57A0&gt;精神大振&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=BD69FF&gt;平息静气&lt;/color&gt;，也能&lt;color=2E89FF&gt;健脾养胃&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=FF57A0&gt;四体不寒&lt;/color&gt;，也能&lt;color=FF8730&gt;充沛活力&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=2E89FF&gt;解暑止泻&lt;/color&gt;，也能&lt;color=BD69FF&gt;养神安眠&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=FF8730&gt;安神去躁&lt;/color&gt;，也能&lt;color=FF57A0&gt;四体不寒&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=BD69FF&gt;提振食欲&lt;/color&gt;，也能&lt;color=2E89FF&gt;解暑止泻&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=FF57A0&gt;清热泻火&lt;/color&gt;，也能&lt;color=FF8730&gt;提神醒脑&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=2E89FF&gt;固表止汗&lt;/color&gt;，也能&lt;color=BD69FF&gt;平息静气&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=FF8730&gt;充沛活力&lt;/color&gt;，也能&lt;color=FF57A0&gt;清热泻火&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=BD69FF&gt;养神安眠&lt;/color&gt;，也能&lt;color=2E89FF&gt;固表止汗&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=FF57A0&gt;精神大振&lt;/color&gt;，也能&lt;color=FF8730&gt;安神去躁&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=2E89FF&gt;健脾养胃&lt;/color&gt;，也能&lt;color=BD69FF&gt;提振食欲&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=FF8730&gt;提神醒脑&lt;/color&gt;，也能&lt;color=2E89FF&gt;解暑止泻&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=BD69FF&gt;平息静气&lt;/color&gt;，也能&lt;color=FF8730&gt;提神醒脑&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=FF57A0&gt;四体不寒&lt;/color&gt;，也能&lt;color=BD69FF&gt;平息静气&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=2E89FF&gt;解暑止泻&lt;/color&gt;，也能&lt;color=FF57A0&gt;四体不寒&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=FF8730&gt;安神去躁&lt;/color&gt;，也能&lt;color=2E89FF&gt;固表止汗&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=BD69FF&gt;提振食欲&lt;/color&gt;，也能&lt;color=FF8730&gt;安神去躁&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=FF57A0&gt;清热泻火&lt;/color&gt;，也能&lt;color=BD69FF&gt;提振食欲&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=2E89FF&gt;固表止汗&lt;/color&gt;，也能&lt;color=FF57A0&gt;清热泻火&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=FF8730&gt;充沛活力&lt;/color&gt;，也能&lt;color=2E89FF&gt;健脾养胃&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=BD69FF&gt;养神安眠&lt;/color&gt;，也能&lt;color=FF8730&gt;充沛活力&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=FF57A0&gt;精神大振&lt;/color&gt;，也能&lt;color=BD69FF&gt;养神安眠&lt;/color&gt;的药呗。</t>
-  </si>
-  <si>
-    <t>大夫，你给我开点能够&lt;color=2E89FF&gt;健脾养胃&lt;/color&gt;，也能&lt;color=FF57A0&gt;精神大振&lt;/color&gt;的药呗。</t>
+    <t>大夫，我最近总是感觉&lt;color=#FF8730&gt;昏昏沉沉&lt;/color&gt;的，你能帮我看看不？</t>
+  </si>
+  <si>
+    <t>医生，我家那老头子最近中了300万，动不动就&lt;color=#BD69FF&gt;“哏”抽过去&lt;/color&gt;，您给开开药。</t>
+  </si>
+  <si>
+    <t>大夫，我这一到阴天就&lt;color=#FF57A0&gt;手脚发凉&lt;/color&gt;，你给我开点暖身子的药吧。</t>
+  </si>
+  <si>
+    <t>我拉……拉肚子……&lt;color=#2E89FF&gt;拉的停不下来&lt;/color&gt;……快……</t>
+  </si>
+  <si>
+    <t>大夫！我最近！&lt;color=#FF8730&gt;非常暴躁&lt;/color&gt;！你说！能不能！给我！开点！药！</t>
+  </si>
+  <si>
+    <t>医生，我儿子最近失恋了，&lt;color=#BD69FF&gt;茶不思饭不想&lt;/color&gt;的，再不吃东西就得饿死了！</t>
+  </si>
+  <si>
+    <t>大夫，我最近有些上火，您来给我开点&lt;color=#FF57A0&gt;下火&lt;/color&gt;的药吧。</t>
+  </si>
+  <si>
+    <t>这天儿也太热了。您瞧我这衣裳儿，嘿！都能挤出水来了！给我来点&lt;color=#2E89FF&gt;止汗&lt;/color&gt;的药吧！</t>
+  </si>
+  <si>
+    <t>大夫，我明天要参加村里的&lt;color=#FF8730&gt;跑步大赛&lt;/color&gt;，您给我开点~你懂的~</t>
+  </si>
+  <si>
+    <t>大夫……我已经……&lt;color=#BD69FF&gt;三天没睡觉&lt;/color&gt;了……实在受不了了……</t>
+  </si>
+  <si>
+    <t>大夫，我一会儿就要参加考试了，但我现在还&lt;color=#FF57A0&gt;困得不行&lt;/color&gt;，您能不能让我亢奋亢奋……</t>
+  </si>
+  <si>
+    <t>大夫，我肠胃一直不好，给我整点&lt;color=#2E89FF&gt;养胃&lt;/color&gt;的呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#FF8730&gt;提神醒脑&lt;/color&gt;，也能&lt;color=#BD69FF&gt;提振食欲&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#BD69FF&gt;平息静气&lt;/color&gt;，也能&lt;color=#FF57A0&gt;清热泻火&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#FF57A0&gt;四体不寒&lt;/color&gt;，也能&lt;color=#2E89FF&gt;固表止汗&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#2E89FF&gt;解暑止泻&lt;/color&gt;，也能&lt;color=#FF8730&gt;安神去躁&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#FF8730&gt;安神去躁&lt;/color&gt;，也能&lt;color=#BD69FF&gt;养神安眠&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#BD69FF&gt;提振食欲&lt;/color&gt;，也能&lt;color=#FF57A0&gt;精神大振&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#FF57A0&gt;清热泻火&lt;/color&gt;，也能&lt;color=#2E89FF&gt;健脾养胃&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#2E89FF&gt;固表止汗&lt;/color&gt;，也能&lt;color=#FF8730&gt;充沛活力&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#FF8730&gt;充沛活力&lt;/color&gt;，也能&lt;color=#BD69FF&gt;平息静气&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#BD69FF&gt;养神安眠&lt;/color&gt;，也能&lt;color=#FF57A0&gt;四体不寒&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#FF57A0&gt;精神大振&lt;/color&gt;，也能&lt;color=#2E89FF&gt;解暑止泻&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#2E89FF&gt;健脾养胃&lt;/color&gt;，也能&lt;color=#FF8730&gt;提神醒脑&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#FF8730&gt;提神醒脑&lt;/color&gt;，也能&lt;color=#FF57A0&gt;精神大振&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#BD69FF&gt;平息静气&lt;/color&gt;，也能&lt;color=#2E89FF&gt;健脾养胃&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#FF57A0&gt;四体不寒&lt;/color&gt;，也能&lt;color=#FF8730&gt;充沛活力&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#2E89FF&gt;解暑止泻&lt;/color&gt;，也能&lt;color=#BD69FF&gt;养神安眠&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#FF8730&gt;安神去躁&lt;/color&gt;，也能&lt;color=#FF57A0&gt;四体不寒&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#BD69FF&gt;提振食欲&lt;/color&gt;，也能&lt;color=#2E89FF&gt;解暑止泻&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#FF57A0&gt;清热泻火&lt;/color&gt;，也能&lt;color=#FF8730&gt;提神醒脑&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#2E89FF&gt;固表止汗&lt;/color&gt;，也能&lt;color=#BD69FF&gt;平息静气&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#FF8730&gt;充沛活力&lt;/color&gt;，也能&lt;color=#FF57A0&gt;清热泻火&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#BD69FF&gt;养神安眠&lt;/color&gt;，也能&lt;color=#2E89FF&gt;固表止汗&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#FF57A0&gt;精神大振&lt;/color&gt;，也能&lt;color=#FF8730&gt;安神去躁&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#2E89FF&gt;健脾养胃&lt;/color&gt;，也能&lt;color=#BD69FF&gt;提振食欲&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#FF8730&gt;提神醒脑&lt;/color&gt;，也能&lt;color=#2E89FF&gt;解暑止泻&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#BD69FF&gt;平息静气&lt;/color&gt;，也能&lt;color=#FF8730&gt;提神醒脑&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#FF57A0&gt;四体不寒&lt;/color&gt;，也能&lt;color=#BD69FF&gt;平息静气&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#2E89FF&gt;解暑止泻&lt;/color&gt;，也能&lt;color=#FF57A0&gt;四体不寒&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#FF8730&gt;安神去躁&lt;/color&gt;，也能&lt;color=#2E89FF&gt;固表止汗&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#BD69FF&gt;提振食欲&lt;/color&gt;，也能&lt;color=#FF8730&gt;安神去躁&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#FF57A0&gt;清热泻火&lt;/color&gt;，也能&lt;color=#BD69FF&gt;提振食欲&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#2E89FF&gt;固表止汗&lt;/color&gt;，也能&lt;color=#FF57A0&gt;清热泻火&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#FF8730&gt;充沛活力&lt;/color&gt;，也能&lt;color=#2E89FF&gt;健脾养胃&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#BD69FF&gt;养神安眠&lt;/color&gt;，也能&lt;color=#FF8730&gt;充沛活力&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#FF57A0&gt;精神大振&lt;/color&gt;，也能&lt;color=#BD69FF&gt;养神安眠&lt;/color&gt;的药呗。</t>
+  </si>
+  <si>
+    <t>大夫，你给我开点能够&lt;color=#2E89FF&gt;健脾养胃&lt;/color&gt;，也能&lt;color=#FF57A0&gt;精神大振&lt;/color&gt;的药呗。</t>
   </si>
 </sst>
 </file>
@@ -661,7 +661,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
